--- a/source/teste.xlsx
+++ b/source/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\compassEvaBuscaDeLivros\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBD147-6268-4249-86EA-97EDA0D7C649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E221832B-B614-492F-945F-3DE74064B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30600" yWindow="3435" windowWidth="26715" windowHeight="15435" xr2:uid="{A9194C11-D1FC-44BE-BC07-8F9C81246BED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="50">
   <si>
     <t>Livro</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0BB54C-80B8-40ED-A899-D789DCEF83AE}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1275,1482 @@
         <v>13</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>99685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>85423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>75682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>56980</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>33698</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>32568</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>26985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>23364</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>22316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>16987</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>15902</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>99685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>85423</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>75682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>56980</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>33698</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>32568</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>26985</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>23364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>22316</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>16987</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>15902</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
